--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_5_22.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_5_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>474945.3062823145</v>
+        <v>506860.4695470732</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17254715.44216108</v>
+        <v>16597726.15245798</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484452</v>
+        <v>492028.9342484457</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7920881.904206205</v>
+        <v>7952447.563048512</v>
       </c>
     </row>
     <row r="11">
@@ -656,22 +656,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.03657478005869</v>
+        <v>284.904903917276</v>
       </c>
       <c r="C2" t="n">
         <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
-        <v>327.2813194716649</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -719,7 +719,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
         <v>414.9510387864824</v>
@@ -817,22 +817,22 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>85.78580588144442</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
         <v>87.77334973307141</v>
@@ -862,13 +862,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>107.2562615404914</v>
       </c>
       <c r="U4" t="n">
         <v>275.6486707394257</v>
@@ -877,13 +877,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>22.03657478005869</v>
+        <v>151.5124148232923</v>
       </c>
       <c r="C5" t="n">
         <v>33.76104808841092</v>
@@ -902,7 +902,7 @@
         <v>31.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
         <v>423.5887552948843</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>170.3636084457641</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -1051,19 +1051,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1108,7 +1108,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>201.727680972659</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
         <v>284.0859530482738</v>
@@ -1120,7 +1120,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>170.0689368712249</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>45.09527856653604</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
         <v>433.7610480884109</v>
@@ -1139,7 +1139,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>429.4369973932878</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F8" t="n">
         <v>423.5887552948843</v>
@@ -1193,13 +1193,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.203262463343094</v>
+        <v>33.94839096113886</v>
       </c>
     </row>
     <row r="9">
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
         <v>164.2192128704925</v>
@@ -1303,7 +1303,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
         <v>138.5031525665292</v>
@@ -1336,19 +1336,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>35.20092700998597</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>115.7932391692405</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
         <v>269.3061403695714</v>
@@ -1357,7 +1357,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -1388,7 +1388,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>71.43430199953282</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>33.08339867820013</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
@@ -1658,10 +1658,10 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>206.4855017772231</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
@@ -1670,7 +1670,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>146.9399060518597</v>
       </c>
       <c r="Y14" t="n">
         <v>404.2032624633431</v>
@@ -1777,7 +1777,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>24.34318456170473</v>
+        <v>24.34318456170492</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1847,7 +1847,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
-        <v>163.5395542426783</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
         <v>429.4369973932878</v>
@@ -1862,7 +1862,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1910,7 +1910,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
-        <v>404.2032624633431</v>
+        <v>136.604751207852</v>
       </c>
     </row>
     <row r="18">
@@ -2014,7 +2014,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>24.34318456170492</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225706</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2093,7 +2093,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>397.3838530629687</v>
+        <v>129.3727203283471</v>
       </c>
       <c r="H20" t="n">
         <v>286.2388530112159</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T20" t="n">
         <v>217.8665548556918</v>
@@ -2144,7 +2144,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
-        <v>229.7552611298602</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
         <v>404.2032624633431</v>
@@ -2251,7 +2251,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9353622244306</v>
+        <v>160.7884964950063</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>18.05677735225706</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2491,7 +2491,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>18.05677735225735</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>18.05677735225796</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2719,16 +2719,16 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>24.34318456170514</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2776,7 +2776,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X28" t="n">
-        <v>242.9378371199217</v>
+        <v>132.9029306024365</v>
       </c>
       <c r="Y28" t="n">
         <v>225.1454739790328</v>
@@ -2953,7 +2953,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
-        <v>164.2192128704925</v>
+        <v>46.45303019605581</v>
       </c>
       <c r="E31" t="n">
         <v>168.0604237117701</v>
@@ -2965,10 +2965,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>18.0567773522574</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3010,7 +3010,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>242.9378371199217</v>
@@ -3202,10 +3202,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,22 +3232,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>18.05677735225796</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U34" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W34" t="n">
-        <v>269.3061403695714</v>
+        <v>157.882488064989</v>
       </c>
       <c r="X34" t="n">
         <v>242.9378371199217</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>82.81535507800047</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T35" t="n">
         <v>217.8665548556918</v>
@@ -3439,10 +3439,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,16 +3469,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>18.05677735225706</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>275.6486707394257</v>
+        <v>131.9969996527474</v>
       </c>
       <c r="V37" t="n">
         <v>284.0859530482738</v>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>18.05677735225751</v>
+        <v>18.0567773522574</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>422.0365747800578</v>
       </c>
       <c r="C41" t="n">
         <v>433.7610480884109</v>
@@ -3910,10 +3910,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>87.77334973307141</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>39.88277234054625</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
-        <v>243.4206519573293</v>
+        <v>179.9904867859629</v>
       </c>
       <c r="U43" t="n">
         <v>275.6486707394257</v>
@@ -3958,7 +3958,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
         <v>242.9378371199217</v>
@@ -4135,16 +4135,16 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>126.7641785672307</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
         <v>163.9353622244306</v>
@@ -4192,7 +4192,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
-        <v>284.0859530482738</v>
+        <v>61.23284287475831</v>
       </c>
       <c r="W46" t="n">
         <v>269.3061403695714</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>484.0636759001416</v>
+        <v>1380.761312584412</v>
       </c>
       <c r="C2" t="n">
-        <v>449.9616071239689</v>
+        <v>1346.65924380824</v>
       </c>
       <c r="D2" t="n">
-        <v>418.0922263388175</v>
+        <v>910.7494589826841</v>
       </c>
       <c r="E2" t="n">
-        <v>388.3578855375167</v>
+        <v>476.9747141409793</v>
       </c>
       <c r="F2" t="n">
-        <v>364.5308599871285</v>
+        <v>49.10728455018705</v>
       </c>
       <c r="G2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018705</v>
       </c>
       <c r="H2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018705</v>
       </c>
       <c r="I2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018705</v>
       </c>
       <c r="J2" t="n">
-        <v>453.9965675465116</v>
+        <v>484.3619720031049</v>
       </c>
       <c r="K2" t="n">
-        <v>874.0494664914149</v>
+        <v>1092.06461831167</v>
       </c>
       <c r="L2" t="n">
-        <v>874.0494664914149</v>
+        <v>1132.008730489136</v>
       </c>
       <c r="M2" t="n">
-        <v>874.0494664914149</v>
+        <v>1132.008730489136</v>
       </c>
       <c r="N2" t="n">
-        <v>1294.102365436318</v>
+        <v>1132.008730489136</v>
       </c>
       <c r="O2" t="n">
-        <v>1697.183430080417</v>
+        <v>1132.008730489136</v>
       </c>
       <c r="P2" t="n">
-        <v>1697.183430080417</v>
+        <v>1739.7113767977</v>
       </c>
       <c r="Q2" t="n">
-        <v>1697.183430080417</v>
+        <v>2286.210162756295</v>
       </c>
       <c r="R2" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509352</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509352</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509352</v>
       </c>
       <c r="U2" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509352</v>
       </c>
       <c r="V2" t="n">
-        <v>1334.566480014244</v>
+        <v>2092.747277443179</v>
       </c>
       <c r="W2" t="n">
-        <v>929.7110254252771</v>
+        <v>2091.932226894616</v>
       </c>
       <c r="X2" t="n">
-        <v>510.5685620045878</v>
+        <v>1672.789763473927</v>
       </c>
       <c r="Y2" t="n">
-        <v>506.3228423446453</v>
+        <v>1668.544043813984</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>540.1154135929012</v>
+        <v>555.2790295414799</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295435</v>
+        <v>448.8225683781221</v>
       </c>
       <c r="D3" t="n">
-        <v>338.5686635760967</v>
+        <v>353.7322795246754</v>
       </c>
       <c r="E3" t="n">
-        <v>244.4482489030504</v>
+        <v>259.6118648516291</v>
       </c>
       <c r="F3" t="n">
-        <v>161.0644105192121</v>
+        <v>176.2280264677907</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539593</v>
+        <v>90.84293673397457</v>
       </c>
       <c r="H3" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018705</v>
       </c>
       <c r="I3" t="n">
-        <v>60.00734176206595</v>
+        <v>75.17095771064464</v>
       </c>
       <c r="J3" t="n">
-        <v>384.5656667282782</v>
+        <v>399.7292826768569</v>
       </c>
       <c r="K3" t="n">
-        <v>804.6185656731816</v>
+        <v>1007.431928985422</v>
       </c>
       <c r="L3" t="n">
-        <v>1159.957753041174</v>
+        <v>1007.431928985422</v>
       </c>
       <c r="M3" t="n">
-        <v>1159.957753041174</v>
+        <v>1007.431928985422</v>
       </c>
       <c r="N3" t="n">
-        <v>1159.957753041174</v>
+        <v>1007.431928985422</v>
       </c>
       <c r="O3" t="n">
-        <v>1159.957753041174</v>
+        <v>1054.435329302581</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041174</v>
+        <v>1054.435329302581</v>
       </c>
       <c r="Q3" t="n">
-        <v>1580.010651986078</v>
+        <v>1595.174267934656</v>
       </c>
       <c r="R3" t="n">
-        <v>1697.183430080417</v>
+        <v>1712.347046028996</v>
       </c>
       <c r="S3" t="n">
-        <v>1633.7279925288</v>
+        <v>1648.891608477379</v>
       </c>
       <c r="T3" t="n">
-        <v>1503.549348859402</v>
+        <v>1518.712964807981</v>
       </c>
       <c r="U3" t="n">
-        <v>1327.21280185937</v>
+        <v>1342.376417807949</v>
       </c>
       <c r="V3" t="n">
-        <v>1128.09528392137</v>
+        <v>1143.258899869948</v>
       </c>
       <c r="W3" t="n">
-        <v>942.7725296545636</v>
+        <v>957.9361456031422</v>
       </c>
       <c r="X3" t="n">
-        <v>787.9050938934436</v>
+        <v>803.0687098420223</v>
       </c>
       <c r="Y3" t="n">
-        <v>661.4193146726643</v>
+        <v>676.582930621243</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>209.2559470001092</v>
+        <v>1128.165445162068</v>
       </c>
       <c r="C4" t="n">
-        <v>209.2559470001092</v>
+        <v>955.6037336452933</v>
       </c>
       <c r="D4" t="n">
-        <v>209.2559470001092</v>
+        <v>789.7257408468161</v>
       </c>
       <c r="E4" t="n">
-        <v>209.2559470001092</v>
+        <v>619.9677370975534</v>
       </c>
       <c r="F4" t="n">
-        <v>209.2559470001092</v>
+        <v>443.2606830593095</v>
       </c>
       <c r="G4" t="n">
-        <v>209.2559470001092</v>
+        <v>277.6694080851372</v>
       </c>
       <c r="H4" t="n">
-        <v>122.603617826933</v>
+        <v>137.7672337755117</v>
       </c>
       <c r="I4" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018705</v>
       </c>
       <c r="J4" t="n">
-        <v>120.5233537662982</v>
+        <v>49.10728455018705</v>
       </c>
       <c r="K4" t="n">
-        <v>120.5233537662982</v>
+        <v>323.8657391213226</v>
       </c>
       <c r="L4" t="n">
-        <v>269.215608100497</v>
+        <v>742.0756208892836</v>
       </c>
       <c r="M4" t="n">
-        <v>689.2685070454004</v>
+        <v>1077.736506291252</v>
       </c>
       <c r="N4" t="n">
-        <v>1109.321405990304</v>
+        <v>1519.995309448896</v>
       </c>
       <c r="O4" t="n">
-        <v>1528.990655216085</v>
+        <v>1939.664558674678</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>2287.17145264502</v>
       </c>
       <c r="Q4" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509352</v>
       </c>
       <c r="R4" t="n">
-        <v>1697.183430080417</v>
+        <v>2433.946406214724</v>
       </c>
       <c r="S4" t="n">
-        <v>1537.942061378414</v>
+        <v>2274.705037512721</v>
       </c>
       <c r="T4" t="n">
-        <v>1292.062614956869</v>
+        <v>2166.365379391012</v>
       </c>
       <c r="U4" t="n">
-        <v>1013.629614209975</v>
+        <v>1887.932378644117</v>
       </c>
       <c r="V4" t="n">
-        <v>726.6741060804052</v>
+        <v>1600.976870514548</v>
       </c>
       <c r="W4" t="n">
-        <v>454.6477016666967</v>
+        <v>1600.976870514548</v>
       </c>
       <c r="X4" t="n">
-        <v>209.2559470001092</v>
+        <v>1355.58511584796</v>
       </c>
       <c r="Y4" t="n">
-        <v>209.2559470001092</v>
+        <v>1128.165445162068</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>557.9336779278854</v>
+        <v>981.0148405224497</v>
       </c>
       <c r="C5" t="n">
-        <v>523.8316091517128</v>
+        <v>946.912771746277</v>
       </c>
       <c r="D5" t="n">
-        <v>491.9622283665614</v>
+        <v>915.0433909611256</v>
       </c>
       <c r="E5" t="n">
-        <v>462.2278875652606</v>
+        <v>481.2686461194208</v>
       </c>
       <c r="F5" t="n">
-        <v>34.36045797446834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G5" t="n">
-        <v>34.36045797446834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H5" t="n">
-        <v>34.36045797446834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K5" t="n">
-        <v>453.9965675465116</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="L5" t="n">
-        <v>874.0494664914149</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="M5" t="n">
-        <v>874.0494664914149</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="N5" t="n">
-        <v>874.0494664914149</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="O5" t="n">
-        <v>1277.130531135514</v>
+        <v>1462.721985931055</v>
       </c>
       <c r="P5" t="n">
-        <v>1277.130531135514</v>
+        <v>2123.562040472833</v>
       </c>
       <c r="Q5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>1613.531556264254</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T5" t="n">
-        <v>1393.464329137293</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U5" t="n">
-        <v>1134.24202645431</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="V5" t="n">
-        <v>771.6250763881362</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="W5" t="n">
-        <v>599.5406234126169</v>
+        <v>1961.486270899337</v>
       </c>
       <c r="X5" t="n">
-        <v>584.4385640323317</v>
+        <v>1542.343807478647</v>
       </c>
       <c r="Y5" t="n">
-        <v>580.1928443723891</v>
+        <v>1134.057683778301</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>262.5057921365585</v>
+        <v>797.1100984170748</v>
       </c>
       <c r="C7" t="n">
-        <v>262.5057921365585</v>
+        <v>624.5483869002998</v>
       </c>
       <c r="D7" t="n">
-        <v>262.5057921365585</v>
+        <v>458.6703941018225</v>
       </c>
       <c r="E7" t="n">
-        <v>262.5057921365585</v>
+        <v>458.6703941018225</v>
       </c>
       <c r="F7" t="n">
-        <v>262.5057921365585</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="G7" t="n">
-        <v>262.5057921365585</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H7" t="n">
-        <v>122.603617826933</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K7" t="n">
-        <v>33.94366860160834</v>
+        <v>414.7393562644539</v>
       </c>
       <c r="L7" t="n">
-        <v>452.1535503695694</v>
+        <v>832.949238032415</v>
       </c>
       <c r="M7" t="n">
-        <v>872.2064493144727</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>1277.514180854636</v>
+        <v>1734.691908370972</v>
       </c>
       <c r="O7" t="n">
-        <v>1697.183430080417</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>1675.765608785789</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>1516.524240083786</v>
+        <v>2489.401636434796</v>
       </c>
       <c r="T7" t="n">
-        <v>1270.644793662241</v>
+        <v>2243.522190013251</v>
       </c>
       <c r="U7" t="n">
-        <v>1066.879459346424</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V7" t="n">
-        <v>779.9239512168544</v>
+        <v>1678.133681136787</v>
       </c>
       <c r="W7" t="n">
-        <v>507.897546803146</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X7" t="n">
-        <v>262.5057921365585</v>
+        <v>1160.715522056491</v>
       </c>
       <c r="Y7" t="n">
-        <v>262.5057921365585</v>
+        <v>988.928717136062</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1772.883156906002</v>
+        <v>1385.472033935714</v>
       </c>
       <c r="C8" t="n">
-        <v>1334.740684089425</v>
+        <v>947.3295611191371</v>
       </c>
       <c r="D8" t="n">
-        <v>898.8308992638698</v>
+        <v>511.4197762935816</v>
       </c>
       <c r="E8" t="n">
-        <v>465.056154422165</v>
+        <v>481.6854354922808</v>
       </c>
       <c r="F8" t="n">
-        <v>37.18872483137273</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="G8" t="n">
-        <v>37.18872483137273</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H8" t="n">
-        <v>37.18872483137273</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>36.77193545851274</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>472.0266229114306</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>927.0793242105257</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="L8" t="n">
-        <v>1382.132025509621</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="M8" t="n">
-        <v>1382.132025509621</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="N8" t="n">
-        <v>1382.132025509621</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O8" t="n">
-        <v>1837.184726808716</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>1838.596772925637</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>1838.596772925637</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>1838.596772925637</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1838.596772925637</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>1838.596772925637</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U8" t="n">
-        <v>1838.596772925637</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V8" t="n">
-        <v>1838.596772925637</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W8" t="n">
-        <v>1837.781722377074</v>
+        <v>2265.205371842461</v>
       </c>
       <c r="X8" t="n">
-        <v>1822.679662996789</v>
+        <v>1846.062908421772</v>
       </c>
       <c r="Y8" t="n">
-        <v>1818.433943336846</v>
+        <v>1811.771604420622</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>542.9436804498055</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>436.4872192864478</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>341.396930433001</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>247.2765157599547</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>163.8926773761164</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>78.50758764230027</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>36.77193545851274</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>62.83560861897033</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>387.3939335851827</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>842.4466348842776</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L9" t="n">
-        <v>1127.786217543887</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M9" t="n">
-        <v>1127.786217543887</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N9" t="n">
-        <v>1127.786217543887</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O9" t="n">
-        <v>1127.786217543887</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P9" t="n">
-        <v>1127.786217543887</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1582.838918842982</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1700.011696937322</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1636.556259385705</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1506.377615716306</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1330.041068716275</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1130.923550778274</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>945.6007965114679</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>790.7333607503479</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>664.2475815295686</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>777.6771095794467</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C10" t="n">
-        <v>777.6771095794467</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
-        <v>611.7991167809694</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>442.0411130317067</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>265.3340589934629</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>265.3340589934629</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>125.4318846838374</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>36.77193545851274</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>36.77193545851274</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>36.77193545851274</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>454.9818172264738</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>910.0345185255688</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1352.293321683213</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1491.089878955295</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1838.596772925637</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1838.596772925637</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1817.178951631009</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>1657.937582929005</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T10" t="n">
-        <v>1412.05813650746</v>
+        <v>2634.504334502149</v>
       </c>
       <c r="U10" t="n">
-        <v>1412.05813650746</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="V10" t="n">
-        <v>1295.095268659743</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W10" t="n">
-        <v>1023.068864246034</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X10" t="n">
-        <v>777.6771095794467</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y10" t="n">
-        <v>777.6771095794467</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="11">
@@ -5015,31 +5015,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2523.375184062125</v>
+        <v>2522.958394689265</v>
       </c>
       <c r="C11" t="n">
-        <v>2085.232711245548</v>
+        <v>2084.815921872688</v>
       </c>
       <c r="D11" t="n">
-        <v>1649.322926419993</v>
+        <v>1648.906137047133</v>
       </c>
       <c r="E11" t="n">
-        <v>1215.548181578288</v>
+        <v>1215.131392205428</v>
       </c>
       <c r="F11" t="n">
-        <v>787.6807519874956</v>
+        <v>787.2639626146356</v>
       </c>
       <c r="G11" t="n">
-        <v>386.282920610759</v>
+        <v>385.8661312378989</v>
       </c>
       <c r="H11" t="n">
-        <v>97.15276605397517</v>
+        <v>96.73597668111512</v>
       </c>
       <c r="I11" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111512</v>
       </c>
       <c r="J11" t="n">
-        <v>531.9906641340331</v>
+        <v>531.990664134033</v>
       </c>
       <c r="K11" t="n">
         <v>1366.340956092211</v>
@@ -5048,43 +5048,43 @@
         <v>2441.40092234507</v>
       </c>
       <c r="M11" t="n">
-        <v>2441.40092234507</v>
+        <v>2481.810506693458</v>
       </c>
       <c r="N11" t="n">
-        <v>2859.155227899</v>
+        <v>2481.810506693458</v>
       </c>
       <c r="O11" t="n">
-        <v>3839.334894469307</v>
+        <v>3461.990173263765</v>
       </c>
       <c r="P11" t="n">
-        <v>4667.644769302702</v>
+        <v>4290.30004809716</v>
       </c>
       <c r="Q11" t="n">
-        <v>4667.644769302702</v>
+        <v>4836.798834055756</v>
       </c>
       <c r="R11" t="n">
-        <v>4836.798834055759</v>
+        <v>4836.798834055756</v>
       </c>
       <c r="S11" t="n">
-        <v>4764.64297345017</v>
+        <v>4836.798834055756</v>
       </c>
       <c r="T11" t="n">
-        <v>4544.575746323208</v>
+        <v>4803.381259633332</v>
       </c>
       <c r="U11" t="n">
-        <v>4544.575746323208</v>
+        <v>4544.158956950349</v>
       </c>
       <c r="V11" t="n">
-        <v>4181.958796257035</v>
+        <v>4181.542006884175</v>
       </c>
       <c r="W11" t="n">
-        <v>3777.103341668068</v>
+        <v>3776.686552295208</v>
       </c>
       <c r="X11" t="n">
-        <v>3357.960878247379</v>
+        <v>3357.544088874519</v>
       </c>
       <c r="Y11" t="n">
-        <v>2949.674754547033</v>
+        <v>2949.257965174173</v>
       </c>
     </row>
     <row r="12">
@@ -5094,10 +5094,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>602.907721672408</v>
+        <v>602.9077216724079</v>
       </c>
       <c r="C12" t="n">
-        <v>496.4512605090503</v>
+        <v>496.4512605090502</v>
       </c>
       <c r="D12" t="n">
         <v>401.3609716556035</v>
@@ -5109,31 +5109,31 @@
         <v>223.8567185987188</v>
       </c>
       <c r="G12" t="n">
-        <v>138.4716288649027</v>
+        <v>138.4716288649026</v>
       </c>
       <c r="H12" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111512</v>
       </c>
       <c r="I12" t="n">
-        <v>122.7996498415728</v>
+        <v>122.7996498415727</v>
       </c>
       <c r="J12" t="n">
         <v>447.3579748077851</v>
       </c>
       <c r="K12" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="L12" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="M12" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="N12" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="O12" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="P12" t="n">
         <v>1102.064021433509</v>
@@ -5160,10 +5160,10 @@
         <v>1005.56483773407</v>
       </c>
       <c r="X12" t="n">
-        <v>850.6974019729504</v>
+        <v>850.6974019729503</v>
       </c>
       <c r="Y12" t="n">
-        <v>724.2116227521711</v>
+        <v>724.211622752171</v>
       </c>
     </row>
     <row r="13">
@@ -5188,25 +5188,25 @@
         <v>262.3272516552875</v>
       </c>
       <c r="G13" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111506</v>
       </c>
       <c r="H13" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111512</v>
       </c>
       <c r="I13" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111512</v>
       </c>
       <c r="J13" t="n">
         <v>183.315661845805</v>
       </c>
       <c r="K13" t="n">
-        <v>458.0741164169406</v>
+        <v>458.0741164169405</v>
       </c>
       <c r="L13" t="n">
-        <v>876.2839981849017</v>
+        <v>876.2839981849016</v>
       </c>
       <c r="M13" t="n">
-        <v>1335.767865365815</v>
+        <v>1335.767865365814</v>
       </c>
       <c r="N13" t="n">
         <v>1778.026668523459</v>
@@ -5255,7 +5255,7 @@
         <v>2523.375184062124</v>
       </c>
       <c r="C14" t="n">
-        <v>2085.232711245547</v>
+        <v>2085.232711245548</v>
       </c>
       <c r="D14" t="n">
         <v>1649.322926419992</v>
@@ -5270,55 +5270,55 @@
         <v>386.2829206107589</v>
       </c>
       <c r="H14" t="n">
-        <v>97.15276605397517</v>
+        <v>97.15276605397516</v>
       </c>
       <c r="I14" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="J14" t="n">
-        <v>96.73597668111518</v>
+        <v>531.9906641340331</v>
       </c>
       <c r="K14" t="n">
-        <v>931.0862686392932</v>
+        <v>1366.340956092211</v>
       </c>
       <c r="L14" t="n">
-        <v>2006.146234892153</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="M14" t="n">
-        <v>2006.146234892153</v>
+        <v>2481.810506693461</v>
       </c>
       <c r="N14" t="n">
-        <v>2312.656441940405</v>
+        <v>2481.810506693461</v>
       </c>
       <c r="O14" t="n">
-        <v>3292.836108510712</v>
+        <v>3461.990173263767</v>
       </c>
       <c r="P14" t="n">
-        <v>4121.145983344108</v>
+        <v>4290.300048097163</v>
       </c>
       <c r="Q14" t="n">
-        <v>4667.644769302702</v>
+        <v>4836.798834055758</v>
       </c>
       <c r="R14" t="n">
-        <v>4836.798834055759</v>
+        <v>4836.798834055758</v>
       </c>
       <c r="S14" t="n">
-        <v>4753.146960239596</v>
+        <v>4753.146960239595</v>
       </c>
       <c r="T14" t="n">
-        <v>4753.146960239596</v>
+        <v>4533.079733112633</v>
       </c>
       <c r="U14" t="n">
-        <v>4544.575746323208</v>
+        <v>4273.85743042965</v>
       </c>
       <c r="V14" t="n">
-        <v>4181.958796257034</v>
+        <v>3911.240480363476</v>
       </c>
       <c r="W14" t="n">
-        <v>3777.103341668068</v>
+        <v>3506.38502577451</v>
       </c>
       <c r="X14" t="n">
-        <v>3357.960878247378</v>
+        <v>3357.960878247379</v>
       </c>
       <c r="Y14" t="n">
         <v>2949.674754547032</v>
@@ -5349,7 +5349,7 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H15" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="I15" t="n">
         <v>122.7996498415728</v>
@@ -5358,19 +5358,19 @@
         <v>447.3579748077851</v>
       </c>
       <c r="K15" t="n">
-        <v>447.3579748077851</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="L15" t="n">
-        <v>447.3579748077851</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="M15" t="n">
-        <v>447.3579748077851</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="N15" t="n">
-        <v>447.3579748077851</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="O15" t="n">
-        <v>447.3579748077851</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="P15" t="n">
         <v>1102.064021433509</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>806.2298140987274</v>
+        <v>806.2298140987272</v>
       </c>
       <c r="C16" t="n">
-        <v>633.6681025819523</v>
+        <v>633.6681025819521</v>
       </c>
       <c r="D16" t="n">
-        <v>467.790109783475</v>
+        <v>467.7901097834749</v>
       </c>
       <c r="E16" t="n">
-        <v>298.0321060342122</v>
+        <v>298.0321060342121</v>
       </c>
       <c r="F16" t="n">
-        <v>121.3250519959685</v>
+        <v>121.3250519959684</v>
       </c>
       <c r="G16" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="H16" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="I16" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="J16" t="n">
         <v>183.315661845805</v>
@@ -5440,10 +5440,10 @@
         <v>458.0741164169406</v>
       </c>
       <c r="L16" t="n">
-        <v>876.2839981849017</v>
+        <v>876.2839981849016</v>
       </c>
       <c r="M16" t="n">
-        <v>1335.767865365815</v>
+        <v>1335.767865365814</v>
       </c>
       <c r="N16" t="n">
         <v>1778.026668523459</v>
@@ -5479,7 +5479,7 @@
         <v>1225.468103503606</v>
       </c>
       <c r="Y16" t="n">
-        <v>998.0484328177145</v>
+        <v>998.0484328177142</v>
       </c>
     </row>
     <row r="17">
@@ -5489,28 +5489,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2252.656868168567</v>
+        <v>2522.958394689264</v>
       </c>
       <c r="C17" t="n">
-        <v>1814.514395351991</v>
+        <v>2084.815921872687</v>
       </c>
       <c r="D17" t="n">
-        <v>1649.322926419992</v>
+        <v>1648.906137047132</v>
       </c>
       <c r="E17" t="n">
-        <v>1215.548181578287</v>
+        <v>1215.131392205427</v>
       </c>
       <c r="F17" t="n">
-        <v>787.6807519874951</v>
+        <v>787.2639626146351</v>
       </c>
       <c r="G17" t="n">
-        <v>386.282920610759</v>
+        <v>385.866131237899</v>
       </c>
       <c r="H17" t="n">
-        <v>97.15276605397517</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="I17" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="J17" t="n">
         <v>531.9906641340331</v>
@@ -5537,28 +5537,28 @@
         <v>4796.389249707368</v>
       </c>
       <c r="R17" t="n">
-        <v>4836.798834055759</v>
+        <v>4836.798834055758</v>
       </c>
       <c r="S17" t="n">
-        <v>4753.146960239596</v>
+        <v>4753.146960239595</v>
       </c>
       <c r="T17" t="n">
-        <v>4533.079733112634</v>
+        <v>4533.079733112633</v>
       </c>
       <c r="U17" t="n">
-        <v>4273.857430429651</v>
+        <v>4273.85743042965</v>
       </c>
       <c r="V17" t="n">
-        <v>3911.240480363478</v>
+        <v>3911.240480363476</v>
       </c>
       <c r="W17" t="n">
-        <v>3506.385025774511</v>
+        <v>3506.38502577451</v>
       </c>
       <c r="X17" t="n">
-        <v>3087.242562353822</v>
+        <v>3087.242562353821</v>
       </c>
       <c r="Y17" t="n">
-        <v>2678.956438653475</v>
+        <v>2949.257965174172</v>
       </c>
     </row>
     <row r="18">
@@ -5586,7 +5586,7 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H18" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="I18" t="n">
         <v>122.7996498415728</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>806.2298140987272</v>
+        <v>947.2320137580464</v>
       </c>
       <c r="C19" t="n">
-        <v>633.6681025819521</v>
+        <v>774.6703022412713</v>
       </c>
       <c r="D19" t="n">
-        <v>467.7901097834749</v>
+        <v>608.792309442794</v>
       </c>
       <c r="E19" t="n">
-        <v>298.0321060342121</v>
+        <v>439.0343056935313</v>
       </c>
       <c r="F19" t="n">
-        <v>121.3250519959684</v>
+        <v>262.3272516552875</v>
       </c>
       <c r="G19" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="H19" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="I19" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="J19" t="n">
         <v>183.315661845805</v>
@@ -5677,10 +5677,10 @@
         <v>458.0741164169406</v>
       </c>
       <c r="L19" t="n">
-        <v>876.2839981849017</v>
+        <v>876.2839981849016</v>
       </c>
       <c r="M19" t="n">
-        <v>1335.767865365815</v>
+        <v>1335.767865365814</v>
       </c>
       <c r="N19" t="n">
         <v>1778.026668523459</v>
@@ -5698,25 +5698,25 @@
         <v>2713.395586583915</v>
       </c>
       <c r="S19" t="n">
-        <v>2554.154217881911</v>
+        <v>2695.15641754123</v>
       </c>
       <c r="T19" t="n">
-        <v>2308.274771460367</v>
+        <v>2449.276971119686</v>
       </c>
       <c r="U19" t="n">
-        <v>2029.841770713472</v>
+        <v>2170.843970372791</v>
       </c>
       <c r="V19" t="n">
-        <v>1742.886262583902</v>
+        <v>1883.888462243222</v>
       </c>
       <c r="W19" t="n">
-        <v>1470.859858170194</v>
+        <v>1611.862057829513</v>
       </c>
       <c r="X19" t="n">
-        <v>1225.468103503606</v>
+        <v>1366.470303162926</v>
       </c>
       <c r="Y19" t="n">
-        <v>998.0484328177142</v>
+        <v>1139.050632477034</v>
       </c>
     </row>
     <row r="20">
@@ -5726,25 +5726,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2523.375184062126</v>
+        <v>2252.656868168567</v>
       </c>
       <c r="C20" t="n">
-        <v>2085.23271124555</v>
+        <v>1814.51439535199</v>
       </c>
       <c r="D20" t="n">
-        <v>1649.322926419994</v>
+        <v>1378.604610526434</v>
       </c>
       <c r="E20" t="n">
-        <v>1215.548181578287</v>
+        <v>944.8298656847296</v>
       </c>
       <c r="F20" t="n">
-        <v>787.6807519874951</v>
+        <v>516.9624360939379</v>
       </c>
       <c r="G20" t="n">
-        <v>386.282920610759</v>
+        <v>386.2829206107589</v>
       </c>
       <c r="H20" t="n">
-        <v>97.15276605397526</v>
+        <v>97.15276605397517</v>
       </c>
       <c r="I20" t="n">
         <v>96.73597668111518</v>
@@ -5756,46 +5756,46 @@
         <v>1366.340956092211</v>
       </c>
       <c r="L20" t="n">
-        <v>2441.40092234507</v>
+        <v>2312.656441940405</v>
       </c>
       <c r="M20" t="n">
-        <v>2441.40092234507</v>
+        <v>2312.656441940405</v>
       </c>
       <c r="N20" t="n">
-        <v>2441.40092234507</v>
+        <v>2312.656441940405</v>
       </c>
       <c r="O20" t="n">
-        <v>3421.580588915377</v>
+        <v>3292.836108510712</v>
       </c>
       <c r="P20" t="n">
-        <v>4249.890463748773</v>
+        <v>4121.145983344108</v>
       </c>
       <c r="Q20" t="n">
-        <v>4796.389249707368</v>
+        <v>4667.644769302702</v>
       </c>
       <c r="R20" t="n">
         <v>4836.798834055759</v>
       </c>
       <c r="S20" t="n">
-        <v>4836.798834055759</v>
+        <v>4753.146960239596</v>
       </c>
       <c r="T20" t="n">
-        <v>4616.731606928797</v>
+        <v>4533.079733112634</v>
       </c>
       <c r="U20" t="n">
-        <v>4357.509304245814</v>
+        <v>4273.857430429651</v>
       </c>
       <c r="V20" t="n">
-        <v>3994.89235417964</v>
+        <v>3911.240480363477</v>
       </c>
       <c r="W20" t="n">
-        <v>3590.036899590674</v>
+        <v>3506.385025774511</v>
       </c>
       <c r="X20" t="n">
-        <v>3357.960878247381</v>
+        <v>3087.242562353821</v>
       </c>
       <c r="Y20" t="n">
-        <v>2949.674754547034</v>
+        <v>2678.956438653474</v>
       </c>
     </row>
     <row r="21">
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>947.2320137580463</v>
+        <v>944.0533615061025</v>
       </c>
       <c r="C22" t="n">
-        <v>774.6703022412712</v>
+        <v>771.4916499893276</v>
       </c>
       <c r="D22" t="n">
-        <v>608.792309442794</v>
+        <v>605.6136571908503</v>
       </c>
       <c r="E22" t="n">
-        <v>439.0343056935312</v>
+        <v>435.8556534415875</v>
       </c>
       <c r="F22" t="n">
-        <v>262.3272516552875</v>
+        <v>259.1485994033437</v>
       </c>
       <c r="G22" t="n">
         <v>96.73597668111518</v>
@@ -5932,28 +5932,28 @@
         <v>2713.395586583915</v>
       </c>
       <c r="R22" t="n">
-        <v>2713.395586583915</v>
+        <v>2691.977765289287</v>
       </c>
       <c r="S22" t="n">
-        <v>2695.15641754123</v>
+        <v>2691.977765289286</v>
       </c>
       <c r="T22" t="n">
-        <v>2449.276971119686</v>
+        <v>2446.098318867741</v>
       </c>
       <c r="U22" t="n">
-        <v>2170.843970372791</v>
+        <v>2167.665318120847</v>
       </c>
       <c r="V22" t="n">
-        <v>1883.888462243221</v>
+        <v>1880.709809991277</v>
       </c>
       <c r="W22" t="n">
-        <v>1611.862057829513</v>
+        <v>1608.683405577569</v>
       </c>
       <c r="X22" t="n">
-        <v>1366.470303162925</v>
+        <v>1363.291650910981</v>
       </c>
       <c r="Y22" t="n">
-        <v>1139.050632477033</v>
+        <v>1135.87198022509</v>
       </c>
     </row>
     <row r="23">
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>952.7568773477108</v>
+        <v>970.9960463903951</v>
       </c>
       <c r="C25" t="n">
-        <v>780.1951658309357</v>
+        <v>798.4343348736201</v>
       </c>
       <c r="D25" t="n">
-        <v>614.3171730324584</v>
+        <v>632.5563420751428</v>
       </c>
       <c r="E25" t="n">
-        <v>444.5591692831957</v>
+        <v>462.79833832588</v>
       </c>
       <c r="F25" t="n">
-        <v>267.852115244952</v>
+        <v>286.0912842876361</v>
       </c>
       <c r="G25" t="n">
-        <v>102.2608402707796</v>
+        <v>120.5000093134638</v>
       </c>
       <c r="H25" t="n">
         <v>102.2608402707796</v>
@@ -6172,25 +6172,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2700.681281130895</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T25" t="n">
-        <v>2454.80183470935</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U25" t="n">
-        <v>2176.368833962455</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V25" t="n">
-        <v>1889.413325832886</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W25" t="n">
-        <v>1617.386921419177</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X25" t="n">
-        <v>1371.99516675259</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y25" t="n">
-        <v>1144.575496066698</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="26">
@@ -6233,7 +6233,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>2588.899621423627</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N26" t="n">
         <v>2588.899621423627</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>811.7546776883922</v>
+        <v>922.9010479080736</v>
       </c>
       <c r="C28" t="n">
-        <v>639.1929661716172</v>
+        <v>750.3393363912985</v>
       </c>
       <c r="D28" t="n">
-        <v>473.3149733731399</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="E28" t="n">
-        <v>303.5569696238771</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F28" t="n">
-        <v>126.8499155856333</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G28" t="n">
-        <v>102.2608402707796</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H28" t="n">
         <v>102.2608402707796</v>
@@ -6415,19 +6415,19 @@
         <v>2313.799635050031</v>
       </c>
       <c r="U28" t="n">
-        <v>2035.366634303137</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V28" t="n">
         <v>1748.411126173567</v>
       </c>
       <c r="W28" t="n">
-        <v>1476.384721759859</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X28" t="n">
-        <v>1230.992967093271</v>
+        <v>1342.139337312953</v>
       </c>
       <c r="Y28" t="n">
-        <v>1003.573296407379</v>
+        <v>1114.719666627061</v>
       </c>
     </row>
     <row r="29">
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>952.7568773477108</v>
+        <v>1062.363260807472</v>
       </c>
       <c r="C31" t="n">
-        <v>780.1951658309357</v>
+        <v>889.8015492906974</v>
       </c>
       <c r="D31" t="n">
-        <v>614.3171730324584</v>
+        <v>842.8792965674087</v>
       </c>
       <c r="E31" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F31" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G31" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H31" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6643,28 +6643,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S31" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176948</v>
       </c>
       <c r="T31" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U31" t="n">
-        <v>2176.368833962455</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V31" t="n">
-        <v>1889.413325832886</v>
+        <v>1726.993304878939</v>
       </c>
       <c r="W31" t="n">
-        <v>1617.386921419177</v>
+        <v>1726.993304878939</v>
       </c>
       <c r="X31" t="n">
-        <v>1371.99516675259</v>
+        <v>1481.601550212351</v>
       </c>
       <c r="Y31" t="n">
-        <v>1144.575496066698</v>
+        <v>1254.18187952646</v>
       </c>
     </row>
     <row r="32">
@@ -6698,28 +6698,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L32" t="n">
-        <v>2446.925785934734</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M32" t="n">
-        <v>2446.925785934734</v>
+        <v>3168.718933692368</v>
       </c>
       <c r="N32" t="n">
-        <v>2588.899621423627</v>
+        <v>4294.449917128814</v>
       </c>
       <c r="O32" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P32" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q32" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>952.7568773477108</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C34" t="n">
-        <v>780.1951658309357</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D34" t="n">
-        <v>614.3171730324584</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E34" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F34" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G34" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H34" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6880,28 +6880,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>2700.681281130895</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S34" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T34" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U34" t="n">
-        <v>2176.368833962455</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="V34" t="n">
-        <v>1889.413325832886</v>
+        <v>2005.426305625834</v>
       </c>
       <c r="W34" t="n">
-        <v>1617.386921419177</v>
+        <v>1845.949044954128</v>
       </c>
       <c r="X34" t="n">
-        <v>1371.99516675259</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y34" t="n">
-        <v>1144.575496066698</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="35">
@@ -6929,7 +6929,7 @@
         <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
@@ -6938,19 +6938,19 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K35" t="n">
-        <v>936.6111322289576</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L35" t="n">
-        <v>2011.671098481817</v>
+        <v>1177.320806523639</v>
       </c>
       <c r="M35" t="n">
-        <v>3168.718933692368</v>
+        <v>2334.36864173419</v>
       </c>
       <c r="N35" t="n">
-        <v>4132.862346968674</v>
+        <v>3460.099625170637</v>
       </c>
       <c r="O35" t="n">
-        <v>5113.04201353898</v>
+        <v>4440.279291740943</v>
       </c>
       <c r="P35" t="n">
         <v>5113.04201353898</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>952.7568773477108</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C37" t="n">
-        <v>780.1951658309357</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D37" t="n">
-        <v>614.3171730324584</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E37" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F37" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G37" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H37" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
@@ -7099,13 +7099,13 @@
         <v>463.598980006605</v>
       </c>
       <c r="L37" t="n">
-        <v>881.8088617745659</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M37" t="n">
         <v>1341.292728955479</v>
       </c>
       <c r="N37" t="n">
-        <v>1783.551532113123</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O37" t="n">
         <v>2203.220781338905</v>
@@ -7117,28 +7117,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S37" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176948</v>
       </c>
       <c r="T37" t="n">
-        <v>2454.80183470935</v>
+        <v>2538.261260176948</v>
       </c>
       <c r="U37" t="n">
-        <v>2176.368833962455</v>
+        <v>2404.930957497405</v>
       </c>
       <c r="V37" t="n">
-        <v>1889.413325832886</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W37" t="n">
-        <v>1617.386921419177</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X37" t="n">
-        <v>1371.99516675259</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y37" t="n">
-        <v>1144.575496066698</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="38">
@@ -7181,16 +7181,16 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>3603.973621145286</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N38" t="n">
-        <v>4729.704604581732</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O38" t="n">
-        <v>4729.704604581732</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P38" t="n">
-        <v>4943.887948785924</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
         <v>4943.887948785924</v>
@@ -7306,7 +7306,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>952.7568773477108</v>
+        <v>952.7568773477109</v>
       </c>
       <c r="C40" t="n">
         <v>780.1951658309358</v>
@@ -7391,16 +7391,16 @@
         <v>2090.757574835212</v>
       </c>
       <c r="D41" t="n">
-        <v>1654.847790009656</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E41" t="n">
-        <v>1221.073045167951</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
         <v>793.2056155771595</v>
       </c>
       <c r="G41" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H41" t="n">
         <v>102.6776296436396</v>
@@ -7448,13 +7448,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W41" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257731</v>
       </c>
       <c r="X41" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837042</v>
       </c>
       <c r="Y41" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136695</v>
       </c>
     </row>
     <row r="42">
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1181.319000882661</v>
+        <v>875.8255515988632</v>
       </c>
       <c r="C43" t="n">
-        <v>1008.757289365886</v>
+        <v>703.2638400820881</v>
       </c>
       <c r="D43" t="n">
-        <v>842.8792965674086</v>
+        <v>537.3858472836108</v>
       </c>
       <c r="E43" t="n">
-        <v>673.1212928181459</v>
+        <v>367.6278435343481</v>
       </c>
       <c r="F43" t="n">
-        <v>496.4142387799021</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="G43" t="n">
-        <v>330.8229638057297</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H43" t="n">
         <v>190.9207894961043</v>
@@ -7579,7 +7579,7 @@
         <v>1341.292728955479</v>
       </c>
       <c r="N43" t="n">
-        <v>1783.551532113124</v>
+        <v>1783.551532113123</v>
       </c>
       <c r="O43" t="n">
         <v>2203.220781338905</v>
@@ -7591,28 +7591,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>2657.217000252137</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T43" t="n">
-        <v>2411.337553830592</v>
+        <v>2377.870508960502</v>
       </c>
       <c r="U43" t="n">
-        <v>2132.904553083697</v>
+        <v>2099.437508213607</v>
       </c>
       <c r="V43" t="n">
-        <v>1845.949044954127</v>
+        <v>1812.482000084038</v>
       </c>
       <c r="W43" t="n">
-        <v>1845.949044954127</v>
+        <v>1540.455595670329</v>
       </c>
       <c r="X43" t="n">
-        <v>1600.55729028754</v>
+        <v>1295.063841003742</v>
       </c>
       <c r="Y43" t="n">
-        <v>1373.137619601648</v>
+        <v>1067.64417031785</v>
       </c>
     </row>
     <row r="44">
@@ -7622,10 +7622,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.900047651788</v>
       </c>
       <c r="C44" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835211</v>
       </c>
       <c r="D44" t="n">
         <v>1654.847790009657</v>
@@ -7634,10 +7634,10 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G44" t="n">
-        <v>391.8077842004236</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H44" t="n">
         <v>102.6776296436396</v>
@@ -7655,43 +7655,43 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M44" t="n">
-        <v>2588.899621423628</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N44" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423626</v>
       </c>
       <c r="O44" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993932</v>
       </c>
       <c r="P44" t="n">
-        <v>4397.38916282733</v>
+        <v>4397.389162827329</v>
       </c>
       <c r="Q44" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785923</v>
       </c>
       <c r="R44" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S44" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722816</v>
       </c>
       <c r="T44" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595855</v>
       </c>
       <c r="U44" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912872</v>
       </c>
       <c r="V44" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.483659846698</v>
       </c>
       <c r="W44" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X44" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837042</v>
       </c>
       <c r="Y44" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="45">
@@ -7704,16 +7704,16 @@
         <v>608.4325852620724</v>
       </c>
       <c r="C45" t="n">
-        <v>501.9761240987147</v>
+        <v>501.9761240987146</v>
       </c>
       <c r="D45" t="n">
-        <v>406.885835245268</v>
+        <v>406.8858352452679</v>
       </c>
       <c r="E45" t="n">
-        <v>312.7654205722217</v>
+        <v>312.7654205722216</v>
       </c>
       <c r="F45" t="n">
-        <v>229.3815821883833</v>
+        <v>229.3815821883832</v>
       </c>
       <c r="G45" t="n">
         <v>143.9964924545671</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>790.3368563937639</v>
+        <v>1015.441008084184</v>
       </c>
       <c r="C46" t="n">
-        <v>790.3368563937639</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="D46" t="n">
-        <v>624.4588635952866</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E46" t="n">
-        <v>496.4142387799021</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F46" t="n">
         <v>496.4142387799021</v>
       </c>
       <c r="G46" t="n">
-        <v>330.8229638057298</v>
+        <v>330.8229638057297</v>
       </c>
       <c r="H46" t="n">
-        <v>190.9207894961043</v>
+        <v>190.9207894961042</v>
       </c>
       <c r="I46" t="n">
         <v>102.2608402707796</v>
@@ -7840,16 +7840,16 @@
         <v>2013.948813008508</v>
       </c>
       <c r="V46" t="n">
-        <v>1726.993304878938</v>
+        <v>1952.097456569358</v>
       </c>
       <c r="W46" t="n">
-        <v>1454.96690046523</v>
+        <v>1680.07105215565</v>
       </c>
       <c r="X46" t="n">
-        <v>1209.575145798642</v>
+        <v>1434.679297489062</v>
       </c>
       <c r="Y46" t="n">
-        <v>982.155475112751</v>
+        <v>1207.259626803171</v>
       </c>
     </row>
   </sheetData>
@@ -7976,31 +7976,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>613.841056877338</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>40.34758805804699</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>407.1525905495951</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>613.8410568773379</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8058,10 +8058,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773379</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8070,13 +8070,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>47.47818213854453</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8134,25 +8134,25 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>150.1941962971706</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>339.0513993959277</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
         <v>169.8916917821538</v>
@@ -8216,10 +8216,10 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>424.2958575201043</v>
+        <v>88.52591951400984</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8228,13 +8228,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>407.1525905495951</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -8295,10 +8295,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8310,10 +8310,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,28 +8371,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960965</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>409.401749030468</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8453,10 +8453,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>459.6491932314092</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="L8" t="n">
-        <v>459.6491932314093</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8465,16 +8465,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>459.6491932314093</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>1.426309209010924</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8532,10 +8532,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>459.6491932314091</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>288.2218006662717</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8547,10 +8547,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>459.6491932314093</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8608,28 +8608,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>459.6491932314092</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>140.1985426990725</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8696,10 +8696,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>40.81776196806868</v>
       </c>
       <c r="N11" t="n">
-        <v>421.9740460140706</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
@@ -8708,10 +8708,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8769,22 +8769,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
         <v>842.7780726850283</v>
@@ -8933,10 +8933,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>40.81776196807141</v>
       </c>
       <c r="N14" t="n">
-        <v>309.6062697457101</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
@@ -8948,7 +8948,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9006,7 +9006,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9021,7 +9021,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9185,7 +9185,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>40.81776196807186</v>
+        <v>40.81776196807095</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9404,7 +9404,7 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
-        <v>1085.919157831171</v>
+        <v>955.8742281294894</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>40.81776196807186</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9881,10 +9881,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>842.7780726850283</v>
@@ -10355,22 +10355,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
-        <v>990.0804712831379</v>
+        <v>826.8607034446122</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10586,7 +10586,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
@@ -10595,13 +10595,13 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>973.8822356326327</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -10829,19 +10829,19 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
-        <v>216.3468123274661</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
         <v>170.8626916697543</v>
@@ -11303,10 +11303,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>143.4079146352437</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,13 +23306,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>11.38105307846854</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>184.7831561774916</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23546,10 +23546,10 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>50.14457787893014</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23558,7 +23558,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>268.0111327346227</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23665,7 +23665,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>139.5921776627259</v>
+        <v>139.5921776627257</v>
       </c>
       <c r="H16" t="n">
         <v>138.5031525665292</v>
@@ -23735,7 +23735,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>268.0111327346216</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23750,7 +23750,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23798,7 +23798,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>267.5985112554911</v>
       </c>
     </row>
     <row r="18">
@@ -23902,7 +23902,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>139.5921776627257</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>138.5031525665292</v>
@@ -23938,7 +23938,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23981,7 +23981,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>268.0111327346216</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24017,7 +24017,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24032,7 +24032,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>185.1957776566222</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24139,7 +24139,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>3.146865729424349</v>
       </c>
       <c r="H22" t="n">
         <v>138.5031525665292</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>139.5921776627262</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24379,7 +24379,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>120.4463752142719</v>
       </c>
       <c r="I25" t="n">
         <v>87.77334973307141</v>
@@ -24412,7 +24412,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>139.5921776627253</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24607,16 +24607,16 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>139.5921776627254</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>87.77334973307141</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>110.0349065174852</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24841,7 +24841,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>117.7661826744367</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>139.5921776627259</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24898,7 +24898,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25090,10 +25090,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,22 +25120,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>3.14686572942388</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>111.4236523045824</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25327,10 +25327,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,16 +25357,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>139.5921776627262</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>143.6516710866783</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25597,7 +25597,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>139.5921776627258</v>
+        <v>139.5921776627259</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25798,10 +25798,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25831,13 +25831,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>117.766182674437</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>63.43016517136638</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25846,7 +25846,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26023,16 +26023,16 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>41.29624514453943</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26080,7 +26080,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>222.8531101735155</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>674037.5168452461</v>
+        <v>683756.7819969335</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>674037.5168452461</v>
+        <v>686509.0189029134</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>675850.3216271134</v>
+        <v>686509.0189029134</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>671102.1876634096</v>
+        <v>671102.1876634092</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>671102.1876634095</v>
+        <v>671102.1876634094</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>671102.1876634093</v>
+        <v>671102.1876634096</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>699423.4668633731</v>
+        <v>699423.4668633728</v>
       </c>
     </row>
     <row r="10">
@@ -26320,31 +26320,31 @@
         <v>294881.0259397246</v>
       </c>
       <c r="E2" t="n">
-        <v>278038.143884422</v>
+        <v>278038.1438844219</v>
       </c>
       <c r="F2" t="n">
         <v>278038.143884422</v>
       </c>
       <c r="G2" t="n">
+        <v>278038.1438844219</v>
+      </c>
+      <c r="H2" t="n">
         <v>278038.143884422</v>
       </c>
-      <c r="H2" t="n">
-        <v>278038.1438844219</v>
-      </c>
       <c r="I2" t="n">
-        <v>289771.6712755438</v>
+        <v>289771.6712755437</v>
       </c>
       <c r="J2" t="n">
         <v>289771.6712755437</v>
       </c>
       <c r="K2" t="n">
+        <v>289771.6712755437</v>
+      </c>
+      <c r="L2" t="n">
         <v>289771.6712755438</v>
       </c>
-      <c r="L2" t="n">
-        <v>289771.6712755437</v>
-      </c>
       <c r="M2" t="n">
-        <v>289771.6712755437</v>
+        <v>289771.6712755438</v>
       </c>
       <c r="N2" t="n">
         <v>289771.6712755437</v>
@@ -26353,7 +26353,7 @@
         <v>289771.6712755438</v>
       </c>
       <c r="P2" t="n">
-        <v>289771.6712755438</v>
+        <v>289771.6712755437</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142191.3006597099</v>
+        <v>205712.2565039042</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>17340.54437390547</v>
       </c>
       <c r="D3" t="n">
-        <v>10981.80667200262</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>223799.2937520274</v>
+        <v>161735.0752101142</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>18364.71563283952</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449902</v>
+        <v>160607.8294856142</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>13814.0085678442</v>
       </c>
       <c r="L3" t="n">
-        <v>8947.611088509851</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>186790.9866104677</v>
+        <v>134989.9446130033</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>199828.8262465156</v>
+        <v>166168.3820999503</v>
       </c>
       <c r="C4" t="n">
-        <v>199828.8262465156</v>
+        <v>156636.6412526738</v>
       </c>
       <c r="D4" t="n">
-        <v>193550.5929483862</v>
+        <v>156636.6412526738</v>
       </c>
       <c r="E4" t="n">
+        <v>65247.19221856652</v>
+      </c>
+      <c r="F4" t="n">
         <v>65247.19221856655</v>
       </c>
-      <c r="F4" t="n">
-        <v>65247.19221856656</v>
-      </c>
       <c r="G4" t="n">
-        <v>65247.19221856655</v>
+        <v>65247.19221856654</v>
       </c>
       <c r="H4" t="n">
         <v>65247.19221856655</v>
       </c>
       <c r="I4" t="n">
-        <v>68000.69828933279</v>
+        <v>68000.69828933281</v>
       </c>
       <c r="J4" t="n">
         <v>68000.69828933281</v>
       </c>
       <c r="K4" t="n">
-        <v>68000.69828933279</v>
+        <v>68000.69828933281</v>
       </c>
       <c r="L4" t="n">
         <v>68000.69828933279</v>
       </c>
       <c r="M4" t="n">
-        <v>68000.69828933284</v>
+        <v>68000.69828933279</v>
       </c>
       <c r="N4" t="n">
         <v>68000.69828933281</v>
       </c>
       <c r="O4" t="n">
+        <v>68000.69828933285</v>
+      </c>
+      <c r="P4" t="n">
         <v>68000.69828933279</v>
-      </c>
-      <c r="P4" t="n">
-        <v>68000.69828933281</v>
       </c>
     </row>
     <row r="5">
@@ -26467,16 +26467,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59424.78813722234</v>
+        <v>70949.13625814216</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>61574.27094846968</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>73519.34227764752</v>
+        <v>73519.34227764749</v>
       </c>
       <c r="F5" t="n">
         <v>73519.34227764752</v>
@@ -26500,7 +26500,7 @@
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="N5" t="n">
         <v>77718.2386057925</v>
@@ -26509,7 +26509,7 @@
         <v>77718.2386057925</v>
       </c>
       <c r="P5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.23860579249</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-106563.8891037233</v>
+        <v>-147948.748922272</v>
       </c>
       <c r="C6" t="n">
-        <v>35627.41155598668</v>
+        <v>46691.31575138769</v>
       </c>
       <c r="D6" t="n">
-        <v>28774.35537086613</v>
+        <v>64031.8601252931</v>
       </c>
       <c r="E6" t="n">
-        <v>-84527.68436381948</v>
+        <v>-22540.02437670317</v>
       </c>
       <c r="F6" t="n">
-        <v>139271.6093882079</v>
+        <v>139195.0508334111</v>
       </c>
       <c r="G6" t="n">
-        <v>139271.6093882079</v>
+        <v>139195.050833411</v>
       </c>
       <c r="H6" t="n">
-        <v>139271.6093882078</v>
+        <v>139195.0508334111</v>
       </c>
       <c r="I6" t="n">
-        <v>125688.018747579</v>
+        <v>125664.7944081963</v>
       </c>
       <c r="J6" t="n">
-        <v>33038.26903542824</v>
+        <v>-16578.31944457845</v>
       </c>
       <c r="K6" t="n">
-        <v>144052.7343804185</v>
+        <v>130215.5014731916</v>
       </c>
       <c r="L6" t="n">
-        <v>135105.1232919086</v>
+        <v>144029.5100410359</v>
       </c>
       <c r="M6" t="n">
-        <v>-42738.25223004923</v>
+        <v>9039.565428032593</v>
       </c>
       <c r="N6" t="n">
-        <v>144052.7343804184</v>
+        <v>144029.5100410358</v>
       </c>
       <c r="O6" t="n">
-        <v>144052.7343804185</v>
+        <v>144029.5100410358</v>
       </c>
       <c r="P6" t="n">
-        <v>144052.7343804185</v>
+        <v>144029.5100410358</v>
       </c>
     </row>
   </sheetData>
@@ -26787,22 +26787,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.841056877338</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>459.6491932314092</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>1209.19970851394</v>
+        <v>1209.199708513939</v>
       </c>
       <c r="F4" t="n">
-        <v>1209.19970851394</v>
+        <v>1209.199708513939</v>
       </c>
       <c r="G4" t="n">
-        <v>1209.19970851394</v>
+        <v>1209.199708513939</v>
       </c>
       <c r="H4" t="n">
         <v>1209.19970851394</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.841056877338</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>53.67414973051893</v>
       </c>
       <c r="D4" t="n">
-        <v>35.35333571130483</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>749.5505152825305</v>
+        <v>541.684501906082</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>69.06079487080569</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.841056877338</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>53.67414973051893</v>
       </c>
       <c r="L4" t="n">
-        <v>35.35333571130483</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>749.5505152825302</v>
+        <v>541.684501906082</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.841056877338</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>53.67414973051893</v>
       </c>
       <c r="L4" t="n">
-        <v>35.35333571130483</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>749.5505152825305</v>
+        <v>541.684501906082</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,22 +27376,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>400</v>
+        <v>137.1316708627827</v>
       </c>
       <c r="C2" t="n">
         <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>70.10253359130382</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
         <v>286.2388530112159</v>
@@ -27439,7 +27439,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27537,22 +27537,22 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>52.71734668508481</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27582,13 +27582,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>136.1643904168379</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27597,13 +27597,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>400</v>
+        <v>270.5241599567664</v>
       </c>
       <c r="C5" t="n">
         <v>400</v>
@@ -27622,7 +27622,7 @@
         <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27634,7 +27634,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27670,19 +27670,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>230.4432915973129</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,19 +27771,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>163.9353622244306</v>
@@ -27828,7 +27828,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>73.9209897667667</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27840,7 +27840,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>55.07653710780792</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>376.9412962135227</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27859,7 +27859,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27913,13 +27913,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>370.2548715022043</v>
       </c>
     </row>
     <row r="9">
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28023,7 +28023,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -28056,19 +28056,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>208.2197249473433</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>168.2927138790333</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28077,7 +28077,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>613.841056877338</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>40.34758805804699</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>407.1525905495951</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>613.8410568773379</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34772,16 +34772,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J3" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773379</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34790,13 +34790,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>47.47818213854453</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34854,25 +34854,25 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>150.1941962971706</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>339.0513993959277</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
         <v>169.8916917821539</v>
@@ -34936,10 +34936,10 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>424.2958575201043</v>
+        <v>88.52591951400984</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -34948,13 +34948,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>407.1525905495951</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35015,10 +35015,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35030,10 +35030,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960965</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
-        <v>409.401749030468</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512943</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35173,10 +35173,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>459.6491932314092</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="L8" t="n">
-        <v>459.6491932314093</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35185,16 +35185,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>459.6491932314093</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>1.426309209010924</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35246,16 +35246,16 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>459.6491932314091</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>288.2218006662717</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35267,10 +35267,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>459.6491932314093</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>459.6491932314092</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>140.1985426990725</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35410,16 +35410,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850284</v>
       </c>
       <c r="L11" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>40.81776196806868</v>
       </c>
       <c r="N11" t="n">
-        <v>421.9740460140706</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831377</v>
@@ -35428,10 +35428,10 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,22 +35489,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35574,13 +35574,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35644,7 +35644,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
         <v>842.7780726850283</v>
@@ -35653,10 +35653,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>40.81776196807141</v>
       </c>
       <c r="N14" t="n">
-        <v>309.6062697457101</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
@@ -35668,7 +35668,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,7 +35726,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35741,7 +35741,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M16" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N16" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
@@ -35905,7 +35905,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>40.81776196807186</v>
+        <v>40.81776196807095</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M19" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N19" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P19" t="n">
         <v>351.017064616507</v>
@@ -36124,7 +36124,7 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
-        <v>1085.919157831171</v>
+        <v>955.8742281294894</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -36136,13 +36136,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q20" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
-        <v>40.81776196807186</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36528,13 +36528,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P25" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q25" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36601,10 +36601,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
@@ -37002,7 +37002,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O31" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P31" t="n">
         <v>351.017064616507</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471158</v>
       </c>
       <c r="O32" t="n">
-        <v>990.0804712831377</v>
+        <v>826.8607034446122</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37306,7 +37306,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
@@ -37315,13 +37315,13 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>973.8822356326327</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
@@ -37461,19 +37461,19 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
-        <v>422.4342240080413</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
         <v>464.1251183645586</v>
       </c>
       <c r="N37" t="n">
-        <v>446.7260637956006</v>
+        <v>446.7260637956008</v>
       </c>
       <c r="O37" t="n">
         <v>423.9083325512945</v>
@@ -37549,19 +37549,19 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>216.3468123274661</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
         <v>170.862691669754</v>
@@ -37944,13 +37944,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645584</v>
       </c>
       <c r="N43" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
@@ -38023,10 +38023,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>143.4079146352437</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
